--- a/data/trans_bre/P16B13-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,71</t>
+          <t>0,0; 38,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 61,12</t>
+          <t>0,6; 57,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 24,82</t>
+          <t>-22,56; 25,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,16</t>
+          <t>0,0; 62,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 166,29</t>
+          <t>0,71; 139,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 34,3</t>
+          <t>-23,83; 35,36</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 0,0</t>
+          <t>-43,57; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 0,0</t>
+          <t>-32,09; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 0,0</t>
+          <t>-43,57; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 0,0</t>
+          <t>-32,09; 0,0</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 8,59</t>
+          <t>-29,53; 8,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 56,04</t>
+          <t>-9,72; 50,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 9,41</t>
+          <t>-30,78; 9,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 127,92</t>
+          <t>-11,31; 109,29</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,07</t>
+          <t>0,0; 19,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,41</t>
+          <t>-8,09; 9,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,57</t>
+          <t>0,0; 23,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 11,97</t>
+          <t>-7,94; 11,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 0,0</t>
+          <t>-29,97; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,2</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 0,0</t>
+          <t>-23,37; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 0,0</t>
+          <t>-29,97; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,32</t>
+          <t>0,0; 19,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 0,0</t>
+          <t>-23,37; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,59</t>
+          <t>-13,85; -1,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,59</t>
+          <t>-13,85; -1,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 6,07</t>
+          <t>-6,12; 5,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 12,73</t>
+          <t>1,87; 12,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 10,64</t>
+          <t>-2,16; 11,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,52</t>
+          <t>-6,2; 6,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 14,79</t>
+          <t>1,96; 14,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 12,48</t>
+          <t>-2,21; 12,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
